--- a/databg.xlsx
+++ b/databg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5012a76d39cc81c0/WIZPAD/课程/毕业论文/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5012a76d39cc81c0/WIZPAD/课程/毕业论文/data_nmjy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_AD4DA82427541F7ACA7EB8EFA08933986AE8DE10" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A03ACC7F-6918-4096-A8E8-1746A8B196E8}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_AD4DA82427541F7ACA7EB8EFA08933986AE8DE10" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{67EF615F-83C8-425D-98E2-F1D0E54D9153}"/>
   <bookViews>
-    <workbookView xWindow="5205" yWindow="1590" windowWidth="21600" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6450" yWindow="2760" windowWidth="21600" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -874,12 +874,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="49.625" customWidth="1"/>
   </cols>
